--- a/benchmark-PLDI26/efficiency/testData.xlsx
+++ b/benchmark-PLDI26/efficiency/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizi/Desktop/pl/getprime/benchmark-PLDI26/efficiency/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB1855B-5911-4F42-902B-66AED91ACF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF48B151-399C-8040-A269-E6D59E8A20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" xr2:uid="{1056904E-6764-8A46-AF04-B89D31D65114}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="Y3" sqref="Y3:Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -582,6 +582,10 @@
       <c r="D3">
         <v>9.0200000000000002E-4</v>
       </c>
+      <c r="E3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>5.8933333333333331E-4</v>
+      </c>
       <c r="F3">
         <v>1.119E-3</v>
       </c>
@@ -591,6 +595,10 @@
       <c r="H3">
         <v>1.1130000000000001E-3</v>
       </c>
+      <c r="I3">
+        <f>AVERAGE(F3:H3)</f>
+        <v>1.0656666666666668E-3</v>
+      </c>
       <c r="J3">
         <v>1.848E-3</v>
       </c>
@@ -600,6 +608,10 @@
       <c r="L3">
         <v>1.892E-3</v>
       </c>
+      <c r="M3">
+        <f>AVERAGE(J3:L3)</f>
+        <v>1.8973333333333333E-3</v>
+      </c>
       <c r="N3">
         <v>6.3299999999999999E-4</v>
       </c>
@@ -609,6 +621,10 @@
       <c r="P3">
         <v>6.5799999999999995E-4</v>
       </c>
+      <c r="Q3">
+        <f>AVERAGE(N3:P3)</f>
+        <v>6.4733333333333331E-4</v>
+      </c>
       <c r="R3">
         <v>9.6599999999999995E-4</v>
       </c>
@@ -618,6 +634,10 @@
       <c r="T3">
         <v>1.0529999999999999E-3</v>
       </c>
+      <c r="U3">
+        <f>AVERAGE(R3:T3)</f>
+        <v>9.7766666666666661E-4</v>
+      </c>
       <c r="V3">
         <v>2.0279999999999999E-3</v>
       </c>
@@ -626,6 +646,10 @@
       </c>
       <c r="X3">
         <v>1.719E-3</v>
+      </c>
+      <c r="Y3">
+        <f>AVERAGE(V3:X3)</f>
+        <v>1.823E-3</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -641,6 +665,10 @@
       <c r="D4">
         <v>6.4899999999999995E-4</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="0">AVERAGE(B4:D4)</f>
+        <v>6.1699999999999993E-4</v>
+      </c>
       <c r="F4">
         <v>7.2400000000000003E-4</v>
       </c>
@@ -650,6 +678,10 @@
       <c r="H4">
         <v>7.6199999999999998E-4</v>
       </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I6" si="1">AVERAGE(F4:H4)</f>
+        <v>7.7933333333333338E-4</v>
+      </c>
       <c r="J4">
         <v>5.5160000000000001E-3</v>
       </c>
@@ -659,6 +691,10 @@
       <c r="L4">
         <v>5.8209999999999998E-3</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M6" si="2">AVERAGE(J4:L4)</f>
+        <v>5.7590000000000002E-3</v>
+      </c>
       <c r="N4">
         <v>6.2600000000000004E-4</v>
       </c>
@@ -668,6 +704,10 @@
       <c r="P4">
         <v>6.6E-4</v>
       </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q6" si="3">AVERAGE(N4:P4)</f>
+        <v>5.3400000000000008E-4</v>
+      </c>
       <c r="R4">
         <v>9.2599999999999996E-4</v>
       </c>
@@ -677,6 +717,10 @@
       <c r="T4">
         <v>1.2160000000000001E-3</v>
       </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U6" si="4">AVERAGE(R4:T4)</f>
+        <v>1.0023333333333334E-3</v>
+      </c>
       <c r="V4">
         <v>1.5820000000000001E-3</v>
       </c>
@@ -685,6 +729,10 @@
       </c>
       <c r="X4">
         <v>5.8799999999999998E-4</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y6" si="5">AVERAGE(V4:X4)</f>
+        <v>1.3563333333333333E-3</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -700,6 +748,10 @@
       <c r="D5">
         <v>7.3700000000000002E-4</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.3500000000000004E-4</v>
+      </c>
       <c r="F5">
         <v>1.2589999999999999E-3</v>
       </c>
@@ -709,6 +761,10 @@
       <c r="H5">
         <v>4.9100000000000001E-4</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>9.5366666666666657E-4</v>
+      </c>
       <c r="J5">
         <v>1.624E-3</v>
       </c>
@@ -718,6 +774,10 @@
       <c r="L5">
         <v>1.67E-3</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1.7749999999999999E-3</v>
+      </c>
       <c r="N5">
         <v>7.4899999999999999E-4</v>
       </c>
@@ -727,6 +787,10 @@
       <c r="P5">
         <v>5.5800000000000001E-4</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>6.5433333333333326E-4</v>
+      </c>
       <c r="R5">
         <v>7.85E-4</v>
       </c>
@@ -736,6 +800,10 @@
       <c r="T5">
         <v>1.175E-3</v>
       </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>1.0003333333333333E-3</v>
+      </c>
       <c r="V5">
         <v>1.9970000000000001E-3</v>
       </c>
@@ -744,6 +812,10 @@
       </c>
       <c r="X5">
         <v>1.689E-3</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="5"/>
+        <v>1.8323333333333334E-3</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -759,6 +831,10 @@
       <c r="D6">
         <v>1.1509999999999999E-3</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.0870000000000001E-3</v>
+      </c>
       <c r="F6">
         <v>1.3450000000000001E-3</v>
       </c>
@@ -768,6 +844,10 @@
       <c r="H6">
         <v>1.7179999999999999E-3</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.6166666666666666E-3</v>
+      </c>
       <c r="J6">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -777,6 +857,10 @@
       <c r="L6">
         <v>2.7000000000000001E-3</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>2.9139999999999999E-3</v>
+      </c>
       <c r="N6">
         <v>9.9700000000000006E-4</v>
       </c>
@@ -786,6 +870,10 @@
       <c r="P6">
         <v>1.0300000000000001E-3</v>
       </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>1.0086666666666668E-3</v>
+      </c>
       <c r="R6">
         <v>1.5250000000000001E-3</v>
       </c>
@@ -795,6 +883,10 @@
       <c r="T6">
         <v>1.866E-3</v>
       </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>1.8813333333333332E-3</v>
+      </c>
       <c r="V6">
         <v>3.5370000000000002E-3</v>
       </c>
@@ -803,6 +895,10 @@
       </c>
       <c r="X6">
         <v>3.3040000000000001E-3</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>3.4926666666666665E-3</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark-PLDI26/efficiency/testData.xlsx
+++ b/benchmark-PLDI26/efficiency/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizi/Desktop/pl/getprime/benchmark-PLDI26/efficiency/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF48B151-399C-8040-A269-E6D59E8A20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F4DCE-8722-5146-8217-5007CB03E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15520" xr2:uid="{1056904E-6764-8A46-AF04-B89D31D65114}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y6"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
